--- a/data/income_statement/2digits/size/72_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/72_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>72-Scientific research and development</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>72-Scientific research and development</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>67558.36086</v>
+        <v>61322.20121</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>86487.63167</v>
+        <v>82275.67200999999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>68272.91868999999</v>
+        <v>61430.34894</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>59569.61463</v>
+        <v>51856.29736</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>58591.44158</v>
+        <v>49886.8562</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>110269.68819</v>
+        <v>105714.84978</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>109667.21421</v>
+        <v>98014.16757999999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>174837.60594</v>
+        <v>153267.19722</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>298625.71198</v>
+        <v>249723.5188</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>240999.45506</v>
+        <v>210795.59141</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>472518.6166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>444637.12071</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>936819.123</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>22327.25365</v>
+        <v>17691.67824</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>59081.00325</v>
+        <v>57384.81585</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>50976.83113999999</v>
+        <v>44739.93463999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>39663.41638</v>
+        <v>34753.11053</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>42075.55556</v>
+        <v>36545.16339</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>84982.36010999999</v>
+        <v>84230.08778</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>67292.00661</v>
+        <v>56201.55972</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>129786.91561</v>
+        <v>119363.44835</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>206700.82609</v>
+        <v>177548.92976</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>174220.53719</v>
+        <v>148448.62786</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>308576.12975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>254417.66483</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>661237.591</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>34979.39345999999</v>
@@ -1034,154 +950,174 @@
         <v>24142.74466</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>16343.81534</v>
+        <v>16272.17153</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15370.67861</v>
+        <v>15193.20591</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>12010.39992</v>
+        <v>11971.35058</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>22877.00593</v>
+        <v>16960.09107</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>33707.80598</v>
+        <v>36914.53446</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>35250.76229</v>
+        <v>24936.78614</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>57875.30564</v>
+        <v>57630.94012</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>25710.18011</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>56145.79386999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>73278.11559</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>125456.767</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10251.71375</v>
+        <v>8651.129510000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3263.88376</v>
+        <v>748.1115</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>952.27221</v>
+        <v>418.24277</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4535.51964</v>
+        <v>1909.98092</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4505.4861</v>
+        <v>1370.34223</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2410.32215</v>
+        <v>4524.670929999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8667.401619999999</v>
+        <v>4898.0734</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9799.928040000001</v>
+        <v>8966.962730000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>34049.58025</v>
+        <v>14543.64892</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>41068.73776</v>
+        <v>36636.78344</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>107796.69298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>116941.34029</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>150124.765</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>55.60105</v>
+        <v>49.6352</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>157.89993</v>
+        <v>76.29395</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>86.28047000000001</v>
+        <v>82.88284</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>765.92391</v>
+        <v>756.0774200000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>123.22952</v>
+        <v>90.08126</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5481.013150000001</v>
+        <v>4973.60883</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1377.11548</v>
+        <v>1305.54985</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1493.60612</v>
+        <v>1092.57853</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5561.138400000001</v>
+        <v>4628.20628</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4023.47194</v>
+        <v>3537.88524</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5341.49596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3835.99638</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6643.713</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6.545850000000001</v>
+        <v>0.58</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>157.70493</v>
+        <v>76.09895</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>84.24315</v>
+        <v>80.84552000000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>765.46505</v>
+        <v>755.61856</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>123.22952</v>
+        <v>90.08126</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>758.9224499999999</v>
+        <v>251.51813</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>334.72313</v>
+        <v>263.1575</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1151.01365</v>
+        <v>1037.21237</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4451.49132</v>
+        <v>3523.88094</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2884.82882</v>
+        <v>2747.45431</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3104.87041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1927.67355</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3160.185</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.01084</v>
@@ -1205,22 +1141,27 @@
         <v>1042.39235</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>342.59247</v>
+        <v>55.36616</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1108.68254</v>
+        <v>1104.09414</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1124.66488</v>
+        <v>785.2060799999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2093.49674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1765.19402</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3342.732</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>49.04436</v>
@@ -1247,241 +1188,271 @@
         <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>0.96454</v>
+        <v>0.2312</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>13.97824</v>
+        <v>5.22485</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>143.12881</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>140.796</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>67502.75981</v>
+        <v>61272.56601</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>86329.73173999999</v>
+        <v>82199.37806</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>68186.63821999999</v>
+        <v>61347.46610000001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>58803.69072</v>
+        <v>51100.21994</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>58468.21206000001</v>
+        <v>49796.77494</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>104788.67504</v>
+        <v>100741.24095</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>108290.09873</v>
+        <v>96708.61773</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>173343.99982</v>
+        <v>152174.61869</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>293064.57358</v>
+        <v>245095.31252</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>236975.98312</v>
+        <v>207257.70617</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>467177.12064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>440801.12433</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>930175.41</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>25847.14721</v>
+        <v>24227.83037</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>29015.48642</v>
+        <v>26693.48794</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26571.81834000001</v>
+        <v>19774.72846</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>29129.15628</v>
+        <v>23908.40162</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>28140.65131</v>
+        <v>24501.61703</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>68350.63623</v>
+        <v>68090.22670999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>56459.98935</v>
+        <v>49736.89688</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>79063.05329</v>
+        <v>68861.68940999999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>143251.76037</v>
+        <v>121623.88699</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>89813.69443999999</v>
+        <v>76870.28708999998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>157152.1215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>163463.80225</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>311092.103</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>331.65529</v>
+        <v>0</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1212.74084</v>
+        <v>995.51207</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3494.34596</v>
+        <v>2738.45451</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>57.85466</v>
+        <v>0</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6235.099980000001</v>
+        <v>6033.66905</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>819.23014</v>
+        <v>1863.40996</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>195.2744</v>
+        <v>3691.00608</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4880.67515</v>
+        <v>7254.20192</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>8062.467559999999</v>
+        <v>11498.53421</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31144.36411</v>
+        <v>31439.36411</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>31339.98264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19765.30481</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>71538.40700000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>294.48045</v>
+        <v>195.6983</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>91.35436999999999</v>
+        <v>90.87053999999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5694.594450000001</v>
+        <v>5692.594450000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1.4941</v>
+        <v>0</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>43011.02809000001</v>
+        <v>42125.24868</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>16304.70053</v>
+        <v>19618.19701</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>17031.17203</v>
+        <v>22627.82034</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>34197.71979</v>
+        <v>26394.03064</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>940.9048299999999</v>
+        <v>5815.90483</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7391.91096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1222.96825</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>80849.383</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>25515.49192</v>
+        <v>24227.83037</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26896.9231</v>
+        <v>25502.27757</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>22620.4313</v>
+        <v>16922.62621</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>21315.38105</v>
+        <v>17981.50038</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>20439.16077</v>
+        <v>18444.443</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22689.72434</v>
+        <v>22178.28568</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>37255.19324</v>
+        <v>26422.7526</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57108.15706000001</v>
+        <v>38931.94461</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>88584.69806</v>
+        <v>71467.90573</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>49637.53288000001</v>
+        <v>31524.12553</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>100308.60116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>124363.90245</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>147925.542</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>611.34203</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>365.68671</v>
+        <v>22.7772</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2061.32612</v>
+        <v>234.30679</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1464.89646</v>
+        <v>23.50498</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1830.65366</v>
+        <v>1923.28239</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2704.82118</v>
+        <v>4.94119</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>43.04905</v>
+        <v>47.72254</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>12406.87496</v>
+        <v>12263.41641</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>8090.892620000001</v>
@@ -1489,284 +1460,324 @@
       <c r="M18" s="48" t="n">
         <v>18111.62674</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>10778.771</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>41655.61259999999</v>
+        <v>37044.73564</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>57314.24532</v>
+        <v>55505.89012</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>41614.81988</v>
+        <v>41572.73764</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>29674.53444</v>
+        <v>27191.81832</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>30327.56075</v>
+        <v>25295.15791</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>36438.03881000001</v>
+        <v>32651.01424</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>51830.10938</v>
+        <v>46971.72085</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>94280.94653</v>
+        <v>83312.92928</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>149812.81321</v>
+        <v>123471.42553</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>147162.28868</v>
+        <v>130387.41908</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>310024.99914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>277337.32208</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>619083.307</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>25136.36695</v>
+        <v>21137.97895</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>48305.44320999999</v>
+        <v>44149.03701</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>23275.75303</v>
+        <v>18791.37529</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>24049.8623</v>
+        <v>17978.19624</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>25930.69335</v>
+        <v>20650.86484</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>27849.62999</v>
+        <v>24740.05698</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>35529.67532</v>
+        <v>32047.12605</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>68766.34968</v>
+        <v>60278.70171</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>100068.57161</v>
+        <v>80344.98793</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>109828.23973</v>
+        <v>99119.95374000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>198049.42014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>183397.36736</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>269579.201</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>14560.06883</v>
+        <v>13802.10918</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>33884.45577</v>
+        <v>32470.79851</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>15774.43274</v>
+        <v>13922.9472</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>14887.63985</v>
+        <v>12619.49391</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>18201.56947</v>
+        <v>15728.69105</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>21132.00198</v>
+        <v>20729.35194</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>21797.01384</v>
+        <v>22762.54207</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>49249.31627</v>
+        <v>48047.28741</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>65505.72163</v>
+        <v>60658.20213000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>78974.78161000001</v>
+        <v>77831.7087</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>131200.22904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>126904.33845</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>203966.34</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>431.57672</v>
+        <v>52.6221</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>320.79308</v>
+        <v>37.82944999999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>148.30365</v>
+        <v>119.39719</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>456.53613</v>
+        <v>407.29422</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1376.10867</v>
+        <v>1037.99865</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1001.13866</v>
+        <v>464.64817</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2048.12195</v>
+        <v>2263.85516</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2798.02794</v>
+        <v>2650.81727</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7614.529109999999</v>
+        <v>5502.864799999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3532.50286</v>
+        <v>3518.62386</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6892.37109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4791.43901</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2623.525</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>10144.7214</v>
+        <v>7283.24767</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>14100.19436</v>
+        <v>11640.40905</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>7353.01664</v>
+        <v>4749.030900000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>8705.686320000001</v>
+        <v>4951.40811</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>6353.01521</v>
+        <v>3884.17514</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5716.48935</v>
+        <v>3546.05687</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>11684.53953</v>
+        <v>7020.72882</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>16719.00547</v>
+        <v>9580.597029999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>26948.32087</v>
+        <v>14183.921</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>27320.95526</v>
+        <v>17769.62118</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>59956.82001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>51701.5899</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>62989.336</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16519.24565</v>
+        <v>15906.75669</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>9008.802109999999</v>
+        <v>11356.85311</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18339.06685</v>
+        <v>22781.36235</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5624.67214</v>
+        <v>9213.622079999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4396.8674</v>
+        <v>4644.293070000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8588.408820000001</v>
+        <v>7910.95726</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>16300.43406</v>
+        <v>14924.5948</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25514.59685</v>
+        <v>23034.22757</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>49744.24159999999</v>
+        <v>43126.4376</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>37334.04895</v>
+        <v>31267.46534</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>111975.579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>93939.95471999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>349504.106</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7886.303890000001</v>
+        <v>7672.037090000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12649.69043</v>
+        <v>11262.99769</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>11286.5334</v>
+        <v>3333.852</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3560.42876</v>
+        <v>909.85349</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5436.30075</v>
+        <v>1243.04058</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4452.43173</v>
+        <v>2900.89856</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7076.317980000001</v>
+        <v>3880.06151</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>17281.08292</v>
+        <v>11845.24545</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31807.65337</v>
+        <v>15222.1751</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>49003.42486</v>
+        <v>33708.79072999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>41498.50162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>34652.50175</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>59257.341</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>511.07124</v>
+        <v>445.15332</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>759.7206</v>
+        <v>502.89861</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>760.58246</v>
+        <v>735.35833</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>463.96941</v>
+        <v>433.90633</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>420.97385</v>
+        <v>62.55928</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>551.64642</v>
+        <v>175.97467</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>929.99892</v>
+        <v>596.23924</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1720.40014</v>
+        <v>599.4580500000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4851.11358</v>
+        <v>1373.73411</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16419.10875</v>
+        <v>9752.935359999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23381.80667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19643.84034</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10049.301</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1931,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9.339</v>
+        <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
@@ -1955,25 +1986,30 @@
         <v>59.44292</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1189.00809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1454.59777</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>12.10709</v>
+        <v>7.80076</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>36.48632</v>
+        <v>2.78269</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>192.23814</v>
+        <v>3.80338</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5.852300000000001</v>
+        <v>4.8622</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>0</v>
@@ -1985,61 +2021,71 @@
         <v>0</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1416.0744</v>
+        <v>12.01594</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>28.4732</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3841.29574</v>
+        <v>68.93782</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>629.31178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>579.14679</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>461.283</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>371.8228099999999</v>
+        <v>332.54876</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6016.157480000001</v>
+        <v>5710.97887</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>8543.60333</v>
+        <v>1385.25786</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1259.43116</v>
+        <v>320.01743</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3013.91989</v>
+        <v>1005.1636</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2624.68312</v>
+        <v>1230.67275</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4608.09631</v>
+        <v>2480.79486</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11187.81006</v>
+        <v>9747.628550000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>14819.28467</v>
+        <v>10532.97156</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>25477.4909</v>
+        <v>19215.72318</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13664.07776</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10398.14474</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>47157.035</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6991.30275</v>
+        <v>6886.53425</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5837.32603</v>
+        <v>5046.337519999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1780.77047</v>
+        <v>1209.43243</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1831.17589</v>
+        <v>151.06753</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2000.65701</v>
+        <v>174.5677</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1276.10219</v>
+        <v>1494.25114</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1538.22275</v>
+        <v>803.02741</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2956.79832</v>
+        <v>1486.14291</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>12104.19695</v>
+        <v>3282.41126</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1781.35255</v>
+        <v>3187.01745</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2634.29732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2576.77211</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1589.722</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>522.1801800000001</v>
+        <v>408.37552</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6523.551769999999</v>
+        <v>6022.56596</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8302.99584</v>
+        <v>689.75543</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1030.68655</v>
+        <v>414.88074</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2500.68723</v>
+        <v>664.72222</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2500.27835</v>
+        <v>1218.76304</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3343.26517</v>
+        <v>1473.92143</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9517.727150000001</v>
+        <v>7341.464190000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>12132.72247</v>
+        <v>10399.3508</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>16118.9725</v>
+        <v>13658.6424</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>16539.2349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15078.54383</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>21844.097</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2210,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5.288489999999999</v>
+        <v>0</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>74.0582</v>
+        <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>0.00365</v>
@@ -2222,25 +2288,30 @@
         <v>0</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1351.89495</v>
+        <v>0</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>18.91664</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3741.57749</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2.84587</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>135.88545</v>
+        <v>132.83634</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>0</v>
@@ -2255,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>126.73293</v>
+        <v>74.74154</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>226.46061</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>993.5901600000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2291,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>18.66522</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2306,52 +2382,62 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>144.27166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>92.98454</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>28.213</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>374.26267</v>
+        <v>268.83155</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6368.55995</v>
+        <v>5870.62325</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8254.302110000001</v>
+        <v>689.63675</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1029.84769</v>
+        <v>414.8294</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2495.38782</v>
+        <v>664.72222</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2400.4011</v>
+        <v>1211.61118</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3216.06053</v>
+        <v>1399.17624</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9209.77174</v>
+        <v>7114.982059999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>10776.11012</v>
+        <v>8906.448789999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14716.21106</v>
+        <v>11244.67029</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10353.30544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>12789.09136</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>21439.173</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1.39285</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>143.67879</v>
+        <v>136.6981</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>19.10637</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>48.69373</v>
+        <v>0.11868</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>0.8388600000000001</v>
+        <v>0.05134</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>0.01092</v>
+        <v>0</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7.15383</v>
+        <v>7.15186</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>0.46806</v>
+        <v>0</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>81.4948</v>
+        <v>0.02152</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4.7174</v>
+        <v>1492.90201</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1296.3133</v>
+        <v>2326.44061</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1306.49015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1202.87777</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>370.644</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1292.52849</v>
+        <v>47.09028</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1625.77314</v>
+        <v>1458.54277</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1625.11102</v>
+        <v>37.38923</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3568.14065</v>
+        <v>83.56394999999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1664.29524</v>
+        <v>59.36631</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>284.19394</v>
+        <v>417.88726</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>751.3876300000001</v>
+        <v>737.3442700000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4269.91979</v>
+        <v>3867.26285</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8337.26744</v>
+        <v>5379.587860000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12853.50169</v>
+        <v>10520.17102</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7448.88712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1541.41795</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3818.529</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1292.52849</v>
+        <v>47.09028</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1331.72679</v>
+        <v>1164.49642</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1625.11102</v>
+        <v>37.38923</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3568.14065</v>
+        <v>83.56394999999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1664.29524</v>
+        <v>59.36631</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>284.19394</v>
+        <v>417.88726</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>751.3876300000001</v>
+        <v>723.0982700000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4269.91979</v>
+        <v>1795.71299</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8175.03496</v>
+        <v>3516.28745</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9678.486550000001</v>
+        <v>7345.15588</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6135.680490000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1541.41795</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3818.529</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2567,106 +2678,121 @@
         <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>14.246</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>0</v>
+        <v>2071.54986</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>162.23248</v>
+        <v>1863.30041</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>3175.01514</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1313.20663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>22590.84087</v>
+        <v>23123.32798</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>13509.16763</v>
+        <v>15138.74207</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>19697.49339</v>
+        <v>25388.06969</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4586.2737</v>
+        <v>9625.030879999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5668.18568</v>
+        <v>5163.24512</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>10256.36826</v>
+        <v>9175.20552</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>19282.09924</v>
+        <v>16593.39061</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>29008.03283</v>
+        <v>23670.74598</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>61081.90506</v>
+        <v>42569.67404</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>57364.99962</v>
+        <v>40797.44265</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>129485.9586</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>111972.49469</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>383098.821</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2132.10455</v>
+        <v>350.3147</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7081.967549999999</v>
+        <v>4225.354</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3361.74041</v>
+        <v>766.28524</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2323.33286</v>
+        <v>726.51693</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1016.49563</v>
+        <v>778.0181899999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>547.5530699999999</v>
+        <v>525.4904300000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>651.18295</v>
+        <v>2141.76554</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>606.89093</v>
+        <v>2159.99835</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2627.02808</v>
+        <v>4595.250950000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>921.86885</v>
+        <v>712.6722900000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1788.95592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1756.22961</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3258.372</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2.66435</v>
+        <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0.05358</v>
@@ -2675,112 +2801,127 @@
         <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>11.97915</v>
+        <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14.74675</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>37.839</v>
+        <v>42.81511</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>122.375</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>115.20435</v>
+        <v>102.49751</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2129.4402</v>
+        <v>350.3147</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7081.91397</v>
+        <v>4225.30042</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3361.74041</v>
+        <v>766.28524</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2311.35371</v>
+        <v>726.51693</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1016.49563</v>
+        <v>778.0181899999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>532.8063199999999</v>
+        <v>525.4904300000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>651.18295</v>
+        <v>2141.76554</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>569.0519300000001</v>
+        <v>2117.18324</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2504.65308</v>
+        <v>4472.875950000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>806.6645</v>
+        <v>610.1747800000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1788.95592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1756.22961</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3258.281</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>174.43432</v>
+        <v>89.29297</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1860.86045</v>
+        <v>1735.70896</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>968.58913</v>
+        <v>898.05101</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1123.57315</v>
+        <v>674.88474</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>700.94562</v>
+        <v>534.28211</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1600.56579</v>
+        <v>843.59324</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>980.4131</v>
+        <v>1149.01427</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4458.722839999999</v>
+        <v>4086.24446</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2649.07616</v>
+        <v>2117.44889</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>847.52612</v>
+        <v>721.27946</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2292.459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2143.14345</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4998.641</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2789,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>22.034</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>360.85002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>550.42508</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>583.71388</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0</v>
@@ -2810,208 +2951,236 @@
         <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>0.05296</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>66.89842</v>
+        <v>11.20275</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>22.4681</v>
+        <v>18.68521</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>22.49609</v>
+        <v>0</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>19.50649</v>
+        <v>0</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>15.24516</v>
+        <v>15.06206</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8.43797</v>
+        <v>5.45867</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>21.02862</v>
+        <v>764.1319</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>199.19522</v>
+        <v>36.151</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4.39682</v>
+        <v>3.16382</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>22.14137</v>
+        <v>17.1002</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>81.60449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>21.26217</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>107.5359</v>
+        <v>78.09022</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1838.39235</v>
+        <v>1717.02375</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>924.0590399999999</v>
+        <v>898.05101</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>743.2166399999999</v>
+        <v>674.88474</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>685.7004599999999</v>
+        <v>519.22005</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1041.70274</v>
+        <v>838.1345699999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>375.6706</v>
+        <v>384.88237</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4259.52762</v>
+        <v>4050.09346</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2644.67934</v>
+        <v>2114.28507</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>825.3317900000001</v>
+        <v>704.17926</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2210.85451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2121.88128</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4980.691</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>24548.5111</v>
+        <v>23384.34971</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>18730.27473</v>
+        <v>17628.38711</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>22090.64467</v>
+        <v>25256.30392</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5786.03341</v>
+        <v>9676.663070000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5983.73569</v>
+        <v>5406.9812</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9203.355539999999</v>
+        <v>8857.102710000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>18952.86909</v>
+        <v>17586.14188</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>25156.20092</v>
+        <v>21744.49987</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>61059.85698</v>
+        <v>45047.4761</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>57439.34235</v>
+        <v>40788.83547999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>128982.45552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>111585.58085</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>381358.552</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1094.982</v>
+        <v>1094.58732</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>721.6039000000001</v>
+        <v>686.93254</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>308.78196</v>
+        <v>308.60255</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>257.11112</v>
+        <v>241.47935</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>409.19347</v>
+        <v>390.5534</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>359.50375</v>
+        <v>347.70225</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>555.6704100000001</v>
+        <v>562.0808499999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1948.71791</v>
+        <v>1587.39279</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3014.20737</v>
+        <v>2307.14273</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2514.24186</v>
+        <v>1806.20011</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6874.50814</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6703.93404</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>45872.19</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>23453.5291</v>
+        <v>22289.76239</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>18008.67083</v>
+        <v>16941.45457</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>21781.86271</v>
+        <v>24947.70137</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5528.92229</v>
+        <v>9435.183720000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>5574.542219999999</v>
+        <v>5016.427799999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8843.851789999999</v>
+        <v>8509.400460000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18397.19868</v>
+        <v>17024.06103</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>23207.48301</v>
+        <v>20157.10708</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>58045.64961</v>
+        <v>42740.33337</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>54925.10049</v>
+        <v>38982.63537</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>122107.94738</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>104881.64681</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>335486.362</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>13</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="E59" s="35" t="n">
+      <c r="L59" s="35" t="n">
         <v>16</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>20</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>22</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>46</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>22</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>21</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>